--- a/TestCases/ToBeAutomated/User.xlsx
+++ b/TestCases/ToBeAutomated/User.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="76">
   <si>
     <t>Add_superadmin_As_superadmin_user</t>
   </si>
@@ -169,6 +169,81 @@
   </si>
   <si>
     <t>DateOfAutomation</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Reject_Success</t>
+  </si>
+  <si>
+    <t>02_User_Add_Error</t>
+  </si>
+  <si>
+    <t>121_Validate_ non super admin_user_ error_edit_adm</t>
+  </si>
+  <si>
+    <t>122_Validate_ non_superadmin_user_ error_add_admin</t>
+  </si>
+  <si>
+    <t>35_Error_register_user</t>
+  </si>
+  <si>
+    <t>20_Creation_superadmin_error</t>
+  </si>
+  <si>
+    <t>06_Accept_user_registration_request</t>
+  </si>
+  <si>
+    <t>28_Process_user_registration_request</t>
+  </si>
+  <si>
+    <t>54_Superadmin_site_specific_privileges</t>
+  </si>
+  <si>
+    <t>42_Admin_error_add_admin_objects</t>
+  </si>
+  <si>
+    <t>29_Promotion_site_admin</t>
+  </si>
+  <si>
+    <t>34_Edit_user_Site_Admin</t>
+  </si>
+  <si>
+    <t>57_Demotion of super administrators</t>
+  </si>
+  <si>
+    <t>16_Creat_ Usr_ Asso_ To_More_ Than_ One_ Sites</t>
+  </si>
+  <si>
+    <t>18_Administrator not able to add Superadministrato</t>
+  </si>
+  <si>
+    <t>20_Delete_user_privilege.</t>
+  </si>
+  <si>
+    <t>Creation_ Of _ Superadmin</t>
+  </si>
+  <si>
+    <t>Creation_ Of_ Supervisor_Users</t>
+  </si>
+  <si>
+    <t>User_Submit_Success</t>
+  </si>
+  <si>
+    <t>Create_scientist_User</t>
+  </si>
+  <si>
+    <t>44_Site_admin_site_specific_user_level</t>
+  </si>
+  <si>
+    <t>47_Site_filtered_repository_user_level</t>
+  </si>
+  <si>
+    <t>30_Edit one's own privilege</t>
+  </si>
+  <si>
+    <t>21_First_user_superadmin</t>
   </si>
 </sst>
 </file>
@@ -514,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33" defaultRowHeight="15"/>
@@ -536,7 +611,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="90">
+    <row r="2" spans="1:4" ht="30">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -544,7 +619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="90">
+    <row r="3" spans="1:4" ht="30">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -552,7 +627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="90">
+    <row r="4" spans="1:4" ht="30">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -560,7 +635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="75">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -568,7 +643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="75">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -576,7 +651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="90">
+    <row r="7" spans="1:4" ht="30">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -584,7 +659,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="105">
+    <row r="8" spans="1:4" ht="30">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -592,7 +667,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="120">
+    <row r="9" spans="1:4" ht="30">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -600,7 +675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="120">
+    <row r="10" spans="1:4" ht="30">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -608,7 +683,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="90">
+    <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -616,7 +691,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="75">
+    <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -624,7 +699,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="75">
+    <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -632,7 +707,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="75">
+    <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -640,7 +715,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="90">
+    <row r="15" spans="1:4" ht="30">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -648,7 +723,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="75">
+    <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -656,7 +731,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="75">
+    <row r="17" spans="1:2" ht="30">
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
@@ -664,7 +739,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="75">
+    <row r="18" spans="1:2" ht="30">
       <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
@@ -672,7 +747,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="90">
+    <row r="19" spans="1:2" ht="30">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
@@ -680,7 +755,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30">
+    <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
@@ -688,7 +763,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="45">
+    <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
@@ -696,7 +771,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="45">
+    <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
@@ -704,7 +779,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="45">
+    <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
@@ -712,7 +787,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30">
+    <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
@@ -720,7 +795,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30">
+    <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
         <v>38</v>
       </c>
@@ -728,7 +803,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="105">
+    <row r="26" spans="1:2" ht="30">
       <c r="A26" s="2" t="s">
         <v>40</v>
       </c>
@@ -736,7 +811,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="45">
+    <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
         <v>42</v>
       </c>
@@ -744,7 +819,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="105">
+    <row r="28" spans="1:2" ht="30">
       <c r="A28" s="2" t="s">
         <v>43</v>
       </c>
@@ -752,7 +827,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="75">
+    <row r="29" spans="1:2" ht="30">
       <c r="A29" s="2" t="s">
         <v>45</v>
       </c>
@@ -760,7 +835,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="90">
+    <row r="30" spans="1:2" ht="30">
       <c r="A30" s="2" t="s">
         <v>45</v>
       </c>
@@ -768,7 +843,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="30">
+    <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
         <v>46</v>
       </c>
@@ -776,13 +851,208 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="45">
+    <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>47</v>
       </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30">
+      <c r="A38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="45">
+      <c r="A39" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30">
+      <c r="A43" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30">
+      <c r="A44" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="30">
+      <c r="A46" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="30">
+      <c r="A47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="30">
+      <c r="A48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="30">
+      <c r="A49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="30">
+      <c r="A52" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="30">
+      <c r="A55" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="30">
+      <c r="A56" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
